--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H2">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I2">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J2">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N2">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O2">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P2">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q2">
-        <v>5.30434117149</v>
+        <v>5.209524154017777</v>
       </c>
       <c r="R2">
-        <v>47.73907054341</v>
+        <v>46.88571738616</v>
       </c>
       <c r="S2">
-        <v>0.02629117536385174</v>
+        <v>0.02742935341709216</v>
       </c>
       <c r="T2">
-        <v>0.03164198029581168</v>
+        <v>0.03081514066462207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H3">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I3">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J3">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
         <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P3">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q3">
-        <v>4.704011972438001</v>
+        <v>6.24140221581911</v>
       </c>
       <c r="R3">
-        <v>42.336107751942</v>
+        <v>56.17261994237199</v>
       </c>
       <c r="S3">
-        <v>0.02331562010862988</v>
+        <v>0.0328624308352406</v>
       </c>
       <c r="T3">
-        <v>0.02806083721446122</v>
+        <v>0.03691885890895007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H4">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I4">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J4">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N4">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O4">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P4">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q4">
-        <v>4.880675684584</v>
+        <v>7.888792232362666</v>
       </c>
       <c r="R4">
-        <v>43.926081161256</v>
+        <v>70.99913009126399</v>
       </c>
       <c r="S4">
-        <v>0.02419126073699368</v>
+        <v>0.04153632151001801</v>
       </c>
       <c r="T4">
-        <v>0.02911468905354616</v>
+        <v>0.04666342551204994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H5">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I5">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J5">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N5">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O5">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P5">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q5">
-        <v>9.780274018656</v>
+        <v>5.197276703531332</v>
       </c>
       <c r="R5">
-        <v>58.681644111936</v>
+        <v>31.183660221188</v>
       </c>
       <c r="S5">
-        <v>0.04847631232943076</v>
+        <v>0.02736486774855141</v>
       </c>
       <c r="T5">
-        <v>0.0388948382442278</v>
+        <v>0.0204951300678475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H6">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I6">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J6">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N6">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O6">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P6">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q6">
-        <v>4.144905479068</v>
+        <v>6.411364736615556</v>
       </c>
       <c r="R6">
-        <v>37.304149311612</v>
+        <v>57.70228262954001</v>
       </c>
       <c r="S6">
-        <v>0.02054438681329308</v>
+        <v>0.03375732294299484</v>
       </c>
       <c r="T6">
-        <v>0.02472559989195235</v>
+        <v>0.03792421349244249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.179146</v>
       </c>
       <c r="I7">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J7">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N7">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O7">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P7">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q7">
-        <v>19.64731710009667</v>
+        <v>14.54307046303555</v>
       </c>
       <c r="R7">
-        <v>176.82585390087</v>
+        <v>130.88763416732</v>
       </c>
       <c r="S7">
-        <v>0.09738269892672541</v>
+        <v>0.07657264036152411</v>
       </c>
       <c r="T7">
-        <v>0.1172021181232186</v>
+        <v>0.08602450987165954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.179146</v>
       </c>
       <c r="I8">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J8">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
         <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P8">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q8">
         <v>17.42369351388822</v>
@@ -948,10 +948,10 @@
         <v>156.813241624994</v>
       </c>
       <c r="S8">
-        <v>0.08636122128075018</v>
+        <v>0.09173978910433622</v>
       </c>
       <c r="T8">
-        <v>0.1039375388992647</v>
+        <v>0.1030638405071299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.179146</v>
       </c>
       <c r="I9">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J9">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N9">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O9">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P9">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q9">
-        <v>18.07805714933244</v>
+        <v>22.02259897672533</v>
       </c>
       <c r="R9">
-        <v>162.702514343992</v>
+        <v>198.203390790528</v>
       </c>
       <c r="S9">
-        <v>0.08960460034234982</v>
+        <v>0.1159540934328164</v>
       </c>
       <c r="T9">
-        <v>0.1078410135419422</v>
+        <v>0.1302670772233524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>13.179146</v>
       </c>
       <c r="I10">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J10">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N10">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O10">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P10">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q10">
-        <v>36.226203925792</v>
+        <v>14.50888009743767</v>
       </c>
       <c r="R10">
-        <v>217.357223554752</v>
+        <v>87.05328058462599</v>
       </c>
       <c r="S10">
-        <v>0.1795566026745811</v>
+        <v>0.07639262015359</v>
       </c>
       <c r="T10">
-        <v>0.144066755104037</v>
+        <v>0.05721484571597742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>13.179146</v>
       </c>
       <c r="I11">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J11">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N11">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O11">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P11">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q11">
-        <v>15.35275912018711</v>
+        <v>17.89816619948111</v>
       </c>
       <c r="R11">
-        <v>138.174832081684</v>
+        <v>161.08349579533</v>
       </c>
       <c r="S11">
-        <v>0.07609655361486291</v>
+        <v>0.09423799788408573</v>
       </c>
       <c r="T11">
-        <v>0.09158379633994089</v>
+        <v>0.105870419786888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H12">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I12">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J12">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N12">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O12">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P12">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q12">
-        <v>3.513682255695</v>
+        <v>3.805279851046666</v>
       </c>
       <c r="R12">
-        <v>31.623140301255</v>
+        <v>34.24751865942</v>
       </c>
       <c r="S12">
-        <v>0.0174157041130486</v>
+        <v>0.02003568134045408</v>
       </c>
       <c r="T12">
-        <v>0.02096016472281584</v>
+        <v>0.02250881854301793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H13">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I13">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J13">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N13">
         <v>11.898589</v>
       </c>
       <c r="O13">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P13">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q13">
-        <v>3.116014385909</v>
+        <v>4.559011800687665</v>
       </c>
       <c r="R13">
-        <v>28.044129473181</v>
+        <v>41.03110620618899</v>
       </c>
       <c r="S13">
-        <v>0.01544464769659712</v>
+        <v>0.02400425494088783</v>
       </c>
       <c r="T13">
-        <v>0.01858795703608602</v>
+        <v>0.02696725953780519</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H14">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I14">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J14">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N14">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O14">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P14">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q14">
-        <v>3.233039315212</v>
+        <v>5.762342441151999</v>
       </c>
       <c r="R14">
-        <v>29.097353836908</v>
+        <v>51.86108197036799</v>
       </c>
       <c r="S14">
-        <v>0.01602468635526871</v>
+        <v>0.0303400699671904</v>
       </c>
       <c r="T14">
-        <v>0.01928604571240021</v>
+        <v>0.03408514628824094</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H15">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I15">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J15">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N15">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O15">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P15">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q15">
-        <v>6.478613302607999</v>
+        <v>3.796333740963499</v>
       </c>
       <c r="R15">
-        <v>38.87167981564799</v>
+        <v>22.778002445781</v>
       </c>
       <c r="S15">
-        <v>0.03211150130556242</v>
+        <v>0.01998857799513412</v>
       </c>
       <c r="T15">
-        <v>0.02576457632691852</v>
+        <v>0.0149706006126514</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H16">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I16">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J16">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N16">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O16">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P16">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q16">
-        <v>2.745653109874</v>
+        <v>4.683160367178333</v>
       </c>
       <c r="R16">
-        <v>24.710877988866</v>
+        <v>42.148443304605</v>
       </c>
       <c r="S16">
-        <v>0.01360893748463863</v>
+        <v>0.02465792594918358</v>
       </c>
       <c r="T16">
-        <v>0.01637864134168485</v>
+        <v>0.0277016174996107</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H17">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I17">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J17">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N17">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O17">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P17">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q17">
-        <v>7.030931222477501</v>
+        <v>5.475706624603333</v>
       </c>
       <c r="R17">
-        <v>42.18558733486501</v>
+        <v>32.85423974762</v>
       </c>
       <c r="S17">
-        <v>0.03484908676969799</v>
+        <v>0.02883086588603714</v>
       </c>
       <c r="T17">
-        <v>0.02796107062878929</v>
+        <v>0.02159310074993065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H18">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I18">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J18">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N18">
         <v>11.898589</v>
       </c>
       <c r="O18">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P18">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q18">
-        <v>6.235191813393835</v>
+        <v>6.560308859229833</v>
       </c>
       <c r="R18">
-        <v>37.41115088036301</v>
+        <v>39.361853155379</v>
       </c>
       <c r="S18">
-        <v>0.03090497313300488</v>
+        <v>0.03454154830750051</v>
       </c>
       <c r="T18">
-        <v>0.02479652170696677</v>
+        <v>0.02587016066776116</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H19">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I19">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J19">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N19">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O19">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P19">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q19">
-        <v>6.469360463080667</v>
+        <v>8.291872848608</v>
       </c>
       <c r="R19">
-        <v>38.81616277848401</v>
+        <v>49.751237091648</v>
       </c>
       <c r="S19">
-        <v>0.03206563924300615</v>
+        <v>0.04365863447982075</v>
       </c>
       <c r="T19">
-        <v>0.02572777902491769</v>
+        <v>0.03269847311050515</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H20">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I20">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J20">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N20">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O20">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P20">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q20">
-        <v>12.963802994376</v>
+        <v>5.46283338632275</v>
       </c>
       <c r="R20">
-        <v>51.855211977504</v>
+        <v>21.851333545291</v>
       </c>
       <c r="S20">
-        <v>0.06425559874230807</v>
+        <v>0.02876308529956107</v>
       </c>
       <c r="T20">
-        <v>0.03437020404775809</v>
+        <v>0.01436155730244795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H21">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I21">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J21">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N21">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O21">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P21">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q21">
-        <v>5.494093310519667</v>
+        <v>6.738955674859168</v>
       </c>
       <c r="R21">
-        <v>32.96455986311801</v>
+        <v>40.43373404915501</v>
       </c>
       <c r="S21">
-        <v>0.02723168929416019</v>
+        <v>0.035482165242534</v>
       </c>
       <c r="T21">
-        <v>0.02184927234183178</v>
+        <v>0.02657464302099862</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H22">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I22">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J22">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N22">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O22">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P22">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q22">
-        <v>1.644096533168333</v>
+        <v>2.936438400275555</v>
       </c>
       <c r="R22">
-        <v>14.796868798515</v>
+        <v>26.42794560248</v>
       </c>
       <c r="S22">
-        <v>0.008149029044541511</v>
+        <v>0.01546102950814807</v>
       </c>
       <c r="T22">
-        <v>0.009807527160307354</v>
+        <v>0.01736948705530088</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H23">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I23">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J23">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N23">
         <v>11.898589</v>
       </c>
       <c r="O23">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P23">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q23">
-        <v>1.458022688554778</v>
+        <v>3.518074318546222</v>
       </c>
       <c r="R23">
-        <v>13.122204196993</v>
+        <v>31.662668866916</v>
       </c>
       <c r="S23">
-        <v>0.007226746724984964</v>
+        <v>0.01852347757262567</v>
       </c>
       <c r="T23">
-        <v>0.008697541068825577</v>
+        <v>0.02080995342175091</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H24">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I24">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J24">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N24">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O24">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P24">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q24">
-        <v>1.512780138591556</v>
+        <v>4.446654196821333</v>
       </c>
       <c r="R24">
-        <v>13.615021247324</v>
+        <v>40.019887771392</v>
       </c>
       <c r="S24">
-        <v>0.00749815417689098</v>
+        <v>0.02341266608662166</v>
       </c>
       <c r="T24">
-        <v>0.009024185622615829</v>
+        <v>0.02630264694258175</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H25">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I25">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J25">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N25">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O25">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P25">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q25">
-        <v>3.031425409424</v>
+        <v>2.929534912960666</v>
       </c>
       <c r="R25">
-        <v>18.188552456544</v>
+        <v>17.577209477764</v>
       </c>
       <c r="S25">
-        <v>0.0150253791121084</v>
+        <v>0.01542468104564512</v>
       </c>
       <c r="T25">
-        <v>0.01205557234123295</v>
+        <v>0.01155243457379009</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H26">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I26">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J26">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N26">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O26">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P26">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q26">
-        <v>1.284725945810889</v>
+        <v>3.613876633291111</v>
       </c>
       <c r="R26">
-        <v>11.562533512298</v>
+        <v>32.52488969962</v>
       </c>
       <c r="S26">
-        <v>0.006367794612712733</v>
+        <v>0.0190278989884063</v>
       </c>
       <c r="T26">
-        <v>0.00766377420844654</v>
+        <v>0.02137663892268738</v>
       </c>
     </row>
   </sheetData>
